--- a/asset/FDI_InvestorScore.xlsx
+++ b/asset/FDI_InvestorScore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/futureplay/Documents/GitHub/Future-Disruption-Index/asset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDEB93A2-AA55-1B4F-AF3D-C38A9B521852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBA2537-72E5-DE47-B118-B0335B43AD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,9 +31,6 @@
     <t>Series A Score</t>
   </si>
   <si>
-    <t>Final Score</t>
-  </si>
-  <si>
     <t>Investor Domain</t>
   </si>
   <si>
@@ -641,6 +638,10 @@
   </si>
   <si>
     <t>kae-capital.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Investor Score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1017,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A81" sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1039,15 +1040,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>7.1891677384203234</v>
@@ -1059,12 +1060,12 @@
         <v>14.181688284030169</v>
       </c>
       <c r="E2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>6.5510803350434044</v>
@@ -1076,12 +1077,12 @@
         <v>13.732964720072619</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4">
         <v>6.4377516497364011</v>
@@ -1093,12 +1094,12 @@
         <v>13.232178243411539</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>5.3589419883644718</v>
@@ -1110,12 +1111,12 @@
         <v>13.18298799922076</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>6.8181431202924498</v>
@@ -1127,12 +1128,12 @@
         <v>13.071971931867919</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>6.4922398350204711</v>
@@ -1144,12 +1145,12 @@
         <v>13.043320170063881</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B8">
         <v>5.585999438999818</v>
@@ -1161,12 +1162,12 @@
         <v>13.02438296904413</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9">
         <v>6.3099182782265162</v>
@@ -1178,12 +1179,12 @@
         <v>12.70684793344266</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>6.2915691395583204</v>
@@ -1195,12 +1196,12 @@
         <v>12.506177237980509</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11">
         <v>6.2580932103619302</v>
@@ -1212,12 +1213,12 @@
         <v>12.403708437297171</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
         <v>6.0222362057747354</v>
@@ -1229,12 +1230,12 @@
         <v>12.32454988461603</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B13">
         <v>5.675611597689505</v>
@@ -1246,12 +1247,12 @@
         <v>12.308930030969879</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>5.819614290181323</v>
@@ -1263,12 +1264,12 @@
         <v>12.22327797757881</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15">
         <v>5.740150118827076</v>
@@ -1280,12 +1281,12 @@
         <v>12.16986959686621</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>5.7990926544605257</v>
@@ -1297,12 +1298,12 @@
         <v>12.10901093268704</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>5.9914645471079817</v>
@@ -1314,12 +1315,12 @@
         <v>12.043553716032401</v>
       </c>
       <c r="E17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>5.6532863106416684</v>
@@ -1331,12 +1332,12 @@
         <v>12.02964968827634</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19">
         <v>5.1647859739235136</v>
@@ -1348,12 +1349,12 @@
         <v>12.010665849187561</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20">
         <v>5.4524680463752953</v>
@@ -1365,12 +1366,12 @@
         <v>12.0082989841773</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
         <v>5.7273129720663949</v>
@@ -1382,12 +1383,12 @@
         <v>11.806070388072969</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22">
         <v>5.1647859739235136</v>
@@ -1399,12 +1400,12 @@
         <v>11.79590901664046</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
         <v>5.7037824746562009</v>
@@ -1416,12 +1417,12 @@
         <v>11.727335336315679</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24">
         <v>6.407292442251693</v>
@@ -1433,12 +1434,12 @@
         <v>11.70560980879973</v>
       </c>
       <c r="E24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B25">
         <v>5.942193498101199</v>
@@ -1450,12 +1451,12 @@
         <v>11.664325111425599</v>
       </c>
       <c r="E25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26">
         <v>4.2484952420493594</v>
@@ -1467,12 +1468,12 @@
         <v>11.657025808943979</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>5.6685365355945274</v>
@@ -1484,12 +1485,12 @@
         <v>11.633332835620349</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28">
         <v>5.521460917862246</v>
@@ -1501,12 +1502,12 @@
         <v>11.630708500626611</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29">
         <v>6.8639526563237441</v>
@@ -1518,12 +1519,12 @@
         <v>11.62327352213909</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>5.5561464758501362</v>
@@ -1535,12 +1536,12 @@
         <v>11.58632553513881</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>5.2800797789982559</v>
@@ -1552,12 +1553,12 @@
         <v>11.57894007502912</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B32">
         <v>6.012970752328946</v>
@@ -1569,12 +1570,12 @@
         <v>11.55245017569387</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33">
         <v>5.857933154483459</v>
@@ -1586,12 +1587,12 @@
         <v>11.492722757652709</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>5.4673936965919703</v>
@@ -1603,12 +1604,12 @@
         <v>11.490406601434881</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35">
         <v>5.1601670280672192</v>
@@ -1620,12 +1621,12 @@
         <v>11.374775126489411</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B36">
         <v>5.4524680463752953</v>
@@ -1637,12 +1638,12 @@
         <v>11.360550984544229</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B37">
         <v>5.0404882572459364</v>
@@ -1654,12 +1655,12 @@
         <v>11.35040653547245</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38">
         <v>5.5739073932347889</v>
@@ -1671,12 +1672,12 @@
         <v>11.28690652299591</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39">
         <v>4.6051701859880918</v>
@@ -1688,12 +1689,12 @@
         <v>11.27466827584597</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <v>5.1480351634986992</v>
@@ -1705,12 +1706,12 @@
         <v>11.257282746263069</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41">
         <v>4.7593208658153499</v>
@@ -1722,12 +1723,12 @@
         <v>11.25264236670656</v>
       </c>
       <c r="E41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B42">
         <v>6.569948819347788</v>
@@ -1739,12 +1740,12 @@
         <v>11.17511900533588</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B43">
         <v>5.0751738152338266</v>
@@ -1756,12 +1757,12 @@
         <v>11.171998877999631</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>5.3505031197186073</v>
@@ -1773,12 +1774,12 @@
         <v>11.17045702613685</v>
       </c>
       <c r="E44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>4.8369718000454158</v>
@@ -1790,12 +1791,12 @@
         <v>11.148070019411779</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46">
         <v>5.7601354112073331</v>
@@ -1807,12 +1808,12 @@
         <v>11.073051577176519</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B47">
         <v>5.0947184113067969</v>
@@ -1824,12 +1825,12 @@
         <v>11.07165485785187</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B48">
         <v>5.32908902521479</v>
@@ -1841,12 +1842,12 @@
         <v>11.02667952962307</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49">
         <v>4.9036631745440884</v>
@@ -1858,12 +1859,12 @@
         <v>11.024339453132081</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50">
         <v>4.7229532216444747</v>
@@ -1875,12 +1876,12 @@
         <v>11.00209984120424</v>
       </c>
       <c r="E50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51">
         <v>5.8289456176102066</v>
@@ -1892,12 +1893,12 @@
         <v>10.99373159153372</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52">
         <v>4.7722242706512574</v>
@@ -1909,12 +1910,12 @@
         <v>10.982327856952351</v>
       </c>
       <c r="E52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53">
         <v>5.4806389233419912</v>
@@ -1926,12 +1927,12 @@
         <v>10.867063557400289</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54">
         <v>6.0832720963611049</v>
@@ -1943,12 +1944,12 @@
         <v>10.84259296217645</v>
       </c>
       <c r="E54" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B55">
         <v>5.3107398865465942</v>
@@ -1960,12 +1961,12 @@
         <v>10.65557726872952</v>
       </c>
       <c r="E55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B56">
         <v>5.1764275489389986</v>
@@ -1977,12 +1978,12 @@
         <v>10.63778454273154</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>4.630067737609818</v>
@@ -1994,12 +1995,12 @@
         <v>10.61404161298864</v>
       </c>
       <c r="E57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58">
         <v>4.1531850622450337</v>
@@ -2011,12 +2012,12 @@
         <v>10.57364521487137</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59">
         <v>4.9573907795774437</v>
@@ -2028,12 +2029,12 @@
         <v>10.530144991827241</v>
       </c>
       <c r="E59" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60">
         <v>5.0224697517432588</v>
@@ -2045,12 +2046,12 @@
         <v>10.431601484631591</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61">
         <v>5.1647859739235136</v>
@@ -2062,12 +2063,12 @@
         <v>10.41658332483666</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62">
         <v>4.5579173011375458</v>
@@ -2079,12 +2080,12 @@
         <v>10.34238868704389</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63">
         <v>4.3174881135363101</v>
@@ -2096,12 +2097,12 @@
         <v>10.34050101837922</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B64">
         <v>4.9139056676377049</v>
@@ -2113,12 +2114,12 @@
         <v>10.259180017273509</v>
       </c>
       <c r="E64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B65">
         <v>4.6792781581418126</v>
@@ -2130,12 +2131,12 @@
         <v>10.17983239118475</v>
       </c>
       <c r="E65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66">
         <v>4.6051701859880918</v>
@@ -2147,12 +2148,12 @@
         <v>10.168180106763209</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B67">
         <v>3.3730265046954591</v>
@@ -2164,12 +2165,12 @@
         <v>9.9904294826699367</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B68">
         <v>4.6051701859880918</v>
@@ -2181,12 +2182,12 @@
         <v>9.9775955246898498</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69">
         <v>4.6051701859880918</v>
@@ -2198,12 +2199,12 @@
         <v>9.875316675569433</v>
       </c>
       <c r="E69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B70">
         <v>4.7163958210983159</v>
@@ -2215,12 +2216,12 @@
         <v>9.8736345893864481</v>
       </c>
       <c r="E70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71">
         <v>4.4556384520171273</v>
@@ -2232,12 +2233,12 @@
         <v>9.7480560964379759</v>
       </c>
       <c r="E71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B72">
         <v>4.3926087440044181</v>
@@ -2249,12 +2250,12 @@
         <v>9.683435438823297</v>
       </c>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73">
         <v>4.0661736852554036</v>
@@ -2266,12 +2267,12 @@
         <v>9.4955193142098455</v>
       </c>
       <c r="E73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>3.6607085771472399</v>
@@ -2283,12 +2284,12 @@
         <v>9.3514189702360877</v>
       </c>
       <c r="E74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>4.305511922489595</v>
@@ -2300,12 +2301,12 @@
         <v>9.2901717301825908</v>
       </c>
       <c r="E75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B76">
         <v>4.4716387933635691</v>
@@ -2317,12 +2318,12 @@
         <v>9.0768089793516609</v>
       </c>
       <c r="E76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B77">
         <v>4.4808724693105146</v>
@@ -2334,12 +2335,12 @@
         <v>8.834728227017699</v>
       </c>
       <c r="E77" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>4.9416424226093039</v>
@@ -2351,12 +2352,12 @@
         <v>8.2738469327845081</v>
       </c>
       <c r="E78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>3.5917157056602882</v>
@@ -2368,15 +2369,15 @@
         <v>7.3912607276617441</v>
       </c>
       <c r="E79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80">
         <v>7.1546153569136628</v>
@@ -2385,15 +2386,15 @@
         <v>7.1546153569136628</v>
       </c>
       <c r="E80" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
         <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
       </c>
       <c r="C81">
         <v>7.1308988302963474</v>
@@ -2402,15 +2403,15 @@
         <v>7.1308988302963474</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82">
         <v>7.1308988302963474</v>
@@ -2419,15 +2420,15 @@
         <v>7.1308988302963474</v>
       </c>
       <c r="E82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <v>6.7452363494843626</v>
@@ -2436,15 +2437,15 @@
         <v>6.7452363494843626</v>
       </c>
       <c r="E83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <v>6.7093043402582984</v>
@@ -2453,15 +2454,15 @@
         <v>6.7093043402582984</v>
       </c>
       <c r="E84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85">
         <v>6.5034522860541504</v>
@@ -2470,15 +2471,15 @@
         <v>6.5034522860541504</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86">
         <v>6.4509968764864221</v>
@@ -2487,12 +2488,12 @@
         <v>6.4509968764864221</v>
       </c>
       <c r="E86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B87">
         <v>1.9195928407379399</v>
@@ -2504,15 +2505,15 @@
         <v>6.1192979186178684</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88">
         <v>5.9088779560987081</v>
@@ -2521,15 +2522,15 @@
         <v>5.9088779560987081</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89">
         <v>5.9083141787758118</v>
@@ -2538,15 +2539,15 @@
         <v>5.9083141787758118</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90">
         <v>5.8468833182968742</v>
@@ -2555,15 +2556,15 @@
         <v>5.8468833182968742</v>
       </c>
       <c r="E90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91">
         <v>5.7446044691764566</v>
@@ -2572,15 +2573,15 @@
         <v>5.7446044691764566</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C92">
         <v>5.6221044436419341</v>
@@ -2589,15 +2590,15 @@
         <v>5.6221044436419341</v>
       </c>
       <c r="E92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C93">
         <v>5.5955688900159686</v>
@@ -2606,32 +2607,32 @@
         <v>5.5955688900159686</v>
       </c>
       <c r="E93" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B94">
         <v>5.4686627322952752</v>
       </c>
       <c r="C94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D94">
         <v>5.4686627322952752</v>
       </c>
       <c r="E94" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C95">
         <v>5.2983173665480363</v>
@@ -2640,15 +2641,15 @@
         <v>5.2983173665480363</v>
       </c>
       <c r="E95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96">
         <v>5.1647859739235136</v>
@@ -2657,15 +2658,15 @@
         <v>5.1647859739235136</v>
       </c>
       <c r="E96" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97">
         <v>5.1647859739235136</v>
@@ -2674,15 +2675,15 @@
         <v>5.1647859739235136</v>
       </c>
       <c r="E97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C98">
         <v>5.1441666867207783</v>
@@ -2691,15 +2692,15 @@
         <v>5.1441666867207783</v>
       </c>
       <c r="E98" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99">
         <v>4.6909370077455161</v>
@@ -2708,15 +2709,15 @@
         <v>4.6909370077455161</v>
       </c>
       <c r="E99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100">
         <v>4.6051701859880918</v>
@@ -2725,15 +2726,15 @@
         <v>4.6051701859880918</v>
       </c>
       <c r="E100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101">
         <v>2.896102432605149</v>
@@ -2742,7 +2743,7 @@
         <v>2.896102432605149</v>
       </c>
       <c r="E101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
